--- a/data/trans_bre/P1426-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.1783731076937118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.1019939973085082</v>
+        <v>-0.1019939973085103</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.0984196748211353</v>
@@ -627,7 +627,7 @@
         <v>0.118247192906838</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.01650816664558671</v>
+        <v>-0.01650816664558705</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.846356039111842</v>
+        <v>-1.765732700964008</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.156933360927014</v>
+        <v>-1.153520014100565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.151111656601506</v>
+        <v>-2.262298122495388</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.636955781093173</v>
+        <v>-0.5897449186339344</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.567962957347685</v>
+        <v>-0.5505195767163666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.293422090406699</v>
+        <v>-0.2936295912159189</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.555266033709261</v>
+        <v>1.518278544516003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.536415633895024</v>
+        <v>1.505592720366763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.781596260478723</v>
+        <v>1.662645466767337</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.247240005336531</v>
+        <v>1.185565822271248</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.562209925412756</v>
+        <v>1.623717453572574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3454396203863153</v>
+        <v>0.3242084060374986</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.31392694797225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.254094019085669</v>
+        <v>-0.2540940190856697</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.281121566837876</v>
@@ -709,7 +709,7 @@
         <v>1.252777545345636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.05282216217938852</v>
+        <v>-0.05282216217938866</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7542747504731144</v>
+        <v>-0.8133158923477966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08085330701040937</v>
+        <v>0.2235460981118472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.815338068534029</v>
+        <v>-1.778157368135708</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4443897031827311</v>
+        <v>-0.4561788288421126</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0315609494623011</v>
+        <v>0.1078704108898459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3312748667319912</v>
+        <v>-0.3130317514789545</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.611697816280397</v>
+        <v>1.578202554335908</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.525013217921617</v>
+        <v>2.562015261058317</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.3239326211022</v>
+        <v>1.392109855465796</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.94992467382225</v>
+        <v>1.881561146486299</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.94306311329741</v>
+        <v>4.704007099902024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3257879100083929</v>
+        <v>0.3721159478086935</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.6379055897136459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3177501095672004</v>
+        <v>0.3177501095671991</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.8824189265404654</v>
@@ -791,7 +791,7 @@
         <v>0.4807529267597718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08803018190776041</v>
+        <v>0.08803018190776001</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3996150093949653</v>
+        <v>-0.4443577004682368</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5664438197201576</v>
+        <v>-0.650795232913048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.459443470258024</v>
+        <v>-1.419198334407644</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4495542773744449</v>
+        <v>-0.4265439548004678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3722797980151558</v>
+        <v>-0.428630851505738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3116546001227643</v>
+        <v>-0.3117239638089364</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.099820624849915</v>
+        <v>2.168016052678295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.023921551910344</v>
+        <v>1.985647411451586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.088144169762936</v>
+        <v>1.949188516472719</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.310170801877489</v>
+        <v>4.273979441227867</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.496665358835857</v>
+        <v>2.438320808512687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7407405180461019</v>
+        <v>0.7063879192823768</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.06221140412497259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.173060666286081</v>
+        <v>0.1730606662860797</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1227057164411133</v>
@@ -873,7 +873,7 @@
         <v>0.0323032725647588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04069856748107022</v>
+        <v>0.04069856748106988</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9788666674606005</v>
+        <v>-1.028800984521707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.177797144100743</v>
+        <v>-1.230139258257382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.419180073688835</v>
+        <v>-1.293347310677274</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4579973864719664</v>
+        <v>-0.435435565258815</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.472118142845698</v>
+        <v>-0.4972618855860513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2754733936836577</v>
+        <v>-0.2448274178774784</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.438574866220959</v>
+        <v>1.386280415078395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.437407805611403</v>
+        <v>1.300868840027884</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.744232585880378</v>
+        <v>1.556324857551197</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.24512080924661</v>
+        <v>1.307736249972267</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.162578444638118</v>
+        <v>0.9832688033894079</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5331125813152465</v>
+        <v>0.4547470653063805</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.5913039448943092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02923173135544743</v>
+        <v>0.02923173135544674</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.2029519271681407</v>
@@ -955,7 +955,7 @@
         <v>0.4093003746120534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006287277413153391</v>
+        <v>0.006287277413153242</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2552191418438832</v>
+        <v>-0.36146010245783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.01766105520426551</v>
+        <v>-0.08824066125484391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8042548432500752</v>
+        <v>-0.8099645707094846</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1453037838261875</v>
+        <v>-0.1905037851916103</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02470182483646176</v>
+        <v>-0.05170358369474872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1578330906310855</v>
+        <v>-0.1550836400818065</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.015840719175322</v>
+        <v>0.9167063309050063</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.257404717501849</v>
+        <v>1.277838797701749</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7982587593383378</v>
+        <v>0.8879475864426741</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.8417976437351344</v>
+        <v>0.7508223740118306</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.074444755140077</v>
+        <v>1.132812414960971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1908957292059421</v>
+        <v>0.2123404444976019</v>
       </c>
     </row>
     <row r="19">
